--- a/BOM/Bill of Materials-Z80 Card for Commodore C64.xlsx
+++ b/BOM/Bill of Materials-Z80 Card for Commodore C64.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronik\Altium\Projects\Z80 Card for Commodore C64\Project Outputs for Z80 Card for Commodore C64\BOM\2021-02-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elektronik\Altium\Projects\Z80 Card for Commodore C64\Project Outputs for Z80 Card for Commodore C64\BOM\2021-03-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -124,10 +124,10 @@
     <t>&lt;Parameter ClientContactEmail not found&gt;</t>
   </si>
   <si>
-    <t>22.02.2021</t>
-  </si>
-  <si>
-    <t>08:43</t>
+    <t>03.03.2021</t>
+  </si>
+  <si>
+    <t>10:27</t>
   </si>
   <si>
     <t>&lt;Parameter ClientWebsite not found&gt;</t>
@@ -145,19 +145,16 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>MPE-Garry</t>
-  </si>
-  <si>
     <t>Fair-Rite</t>
   </si>
   <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>Sullins</t>
   </si>
   <si>
     <t>Exar</t>
@@ -175,9 +172,6 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>369-1-014-0-NTX-KT0</t>
-  </si>
-  <si>
     <t>C315C100J3G5TA</t>
   </si>
   <si>
@@ -187,13 +181,13 @@
     <t>C0805C106K8RACTU</t>
   </si>
   <si>
-    <t>CSC09A014K70GPA</t>
-  </si>
-  <si>
-    <t>SN74LS245N</t>
-  </si>
-  <si>
-    <t>SN74LS373N</t>
+    <t>M20-7830342</t>
+  </si>
+  <si>
+    <t>M20-7830742</t>
+  </si>
+  <si>
+    <t>PRPC006SFAN-RC</t>
   </si>
   <si>
     <t>SPX5205M5-L-3-3/TR</t>
@@ -214,12 +208,6 @@
     <t>Axial</t>
   </si>
   <si>
-    <t>SIP</t>
-  </si>
-  <si>
-    <t>PDIP</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
@@ -229,15 +217,15 @@
     <t>LQFP</t>
   </si>
   <si>
+    <t>SMD/SMT</t>
+  </si>
+  <si>
     <t>DIP</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Grid pitch: 1.27 mm BL2/15-0400GTT-014 RU MPE Garry Conten</t>
-  </si>
-  <si>
     <t>Ferrite Beads Axial 91Ohm 100MHz T/R</t>
   </si>
   <si>
@@ -253,13 +241,13 @@
     <t>Ceramic Disc Capacitors 100nF -20%~+80% 50V Through Hole,P=2.54mm RoHS</t>
   </si>
   <si>
-    <t>Resistor Networks &amp; Arrays 9pin 4.7Kohms 2% Bussed</t>
-  </si>
-  <si>
-    <t>IC TXRX NON-INVERT 5.25V 20DIP</t>
-  </si>
-  <si>
-    <t>Latch Transparent 3-ST 8-CH D-Type 20-Pin PDIP Tube</t>
+    <t>Headers &amp; Wire Housings 03+03 DIL VERTICAL SOCKET GOLD+TIN</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings 7+7 DIL VERT SOCKET</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
   </si>
   <si>
     <t>LDO Regulator Pos 3.3V 0.15A 5-Pin SOT-23 T/R</t>
@@ -271,6 +259,9 @@
     <t>IC CPLD 144MC 7.5NS 100TQFP</t>
   </si>
   <si>
+    <t>XO53050UITA-50.000, Crystal Oscillator, 50 MHz, 50ppm HCMOS, LSTTL 15pF, 4-Pin SMD, 5 x 3.2 x 1mm</t>
+  </si>
+  <si>
     <t>IC MPU Z80 8MHZ 40DIP</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>Supplier 1</t>
   </si>
   <si>
-    <t>Schukat</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -298,16 +286,16 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t>BL215400-14</t>
-  </si>
-  <si>
     <t>1934-1416-1-ND</t>
   </si>
   <si>
     <t>80-C315C100J3G5TA</t>
   </si>
   <si>
-    <t>71-CSC09A01-4.7K</t>
+    <t>855-M20-7830742</t>
+  </si>
+  <si>
+    <t>S1211EC-06-ND</t>
   </si>
   <si>
     <t>493-10223-1-ND</t>
@@ -340,7 +328,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>22.02.2021 08:43</t>
+    <t>03.03.2021 10:27</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -1955,11 +1943,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>44249</v>
+        <v>44258</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>44249.363651736108</v>
+        <v>44258.435952546293</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="20"/>
@@ -1984,37 +1972,37 @@
         <v>40</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,29 +2015,39 @@
       <c r="D10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="30"/>
+      <c r="E10" s="30">
+        <v>2743005112</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="41"/>
+        <v>88</v>
+      </c>
+      <c r="K10" s="41">
+        <v>6</v>
+      </c>
       <c r="L10" s="41">
-        <v>0</v>
-      </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="68"/>
+        <v>25761</v>
+      </c>
+      <c r="M10" s="85">
+        <v>0.16</v>
+      </c>
+      <c r="N10" s="85">
+        <v>0.96</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
@@ -2061,35 +2059,33 @@
       <c r="D11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="32">
-        <v>2743005112</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="E11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="32"/>
       <c r="G11" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11" s="32">
         <v>6</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" s="42">
         <v>6</v>
       </c>
       <c r="L11" s="42">
-        <v>43761</v>
+        <v>1303</v>
       </c>
       <c r="M11" s="86">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="N11" s="86">
-        <v>0.96</v>
+        <v>2.34</v>
       </c>
       <c r="O11" s="69" t="s">
         <v>38</v>
@@ -2103,39 +2099,33 @@
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="F12" s="30">
+        <v>603</v>
+      </c>
       <c r="G12" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="41">
-        <v>6</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1650833</v>
+      </c>
+      <c r="K12" s="41"/>
       <c r="L12" s="41">
-        <v>1303</v>
-      </c>
-      <c r="M12" s="85">
-        <v>0.39</v>
-      </c>
-      <c r="N12" s="85">
-        <v>2.34</v>
-      </c>
-      <c r="O12" s="68" t="s">
-        <v>38</v>
-      </c>
+        <v>15104</v>
+      </c>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="68"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
@@ -2145,29 +2135,29 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="32">
-        <v>603</v>
+        <v>805</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H13" s="32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J13" s="32">
-        <v>1650833</v>
+        <v>2118132</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42">
-        <v>15104</v>
+        <v>27657</v>
       </c>
       <c r="M13" s="86"/>
       <c r="N13" s="86"/>
@@ -2180,31 +2170,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="30">
-        <v>805</v>
-      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H14" s="30">
-        <v>2</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="30">
-        <v>2118132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" s="77"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="41">
-        <v>27677</v>
-      </c>
+      <c r="L14" s="41"/>
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
       <c r="O14" s="68"/>
@@ -2216,19 +2194,29 @@
         <v>6</v>
       </c>
       <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H15" s="32">
-        <v>3</v>
-      </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="32">
+        <v>3225934</v>
+      </c>
       <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="L15" s="42">
+        <v>88</v>
+      </c>
       <c r="M15" s="86"/>
       <c r="N15" s="86"/>
       <c r="O15" s="69"/>
@@ -2241,41 +2229,31 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" s="30">
         <v>1</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="41">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K16" s="41"/>
       <c r="L16" s="41">
-        <v>1746</v>
-      </c>
-      <c r="M16" s="85">
-        <v>2.61</v>
-      </c>
-      <c r="N16" s="85">
-        <v>2.61</v>
-      </c>
-      <c r="O16" s="68" t="s">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57"/>
@@ -2285,33 +2263,39 @@
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>65</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F17" s="32"/>
       <c r="G17" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" s="32">
         <v>1</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="32">
-        <v>1106085</v>
-      </c>
-      <c r="K17" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="42">
+        <v>1</v>
+      </c>
       <c r="L17" s="42">
-        <v>1388</v>
-      </c>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="69"/>
+        <v>15197</v>
+      </c>
+      <c r="M17" s="86">
+        <v>0.21</v>
+      </c>
+      <c r="N17" s="86">
+        <v>0.21</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57"/>
@@ -2324,30 +2308,32 @@
         <v>45</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H18" s="30">
         <v>1</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J18" s="30">
-        <v>1470892</v>
+        <v>2889628</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="41">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M18" s="85"/>
       <c r="N18" s="85"/>
-      <c r="O18" s="68"/>
+      <c r="O18" s="68" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57"/>
@@ -2360,31 +2346,37 @@
         <v>46</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H19" s="32">
         <v>1</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="32">
-        <v>2889628</v>
-      </c>
-      <c r="K19" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="42">
+        <v>1</v>
+      </c>
       <c r="L19" s="42">
-        <v>0</v>
-      </c>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
+        <v>1404</v>
+      </c>
+      <c r="M19" s="86">
+        <v>0.46</v>
+      </c>
+      <c r="N19" s="86">
+        <v>0.46</v>
+      </c>
       <c r="O19" s="69" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2398,35 +2390,29 @@
         <v>47</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H20" s="30">
         <v>1</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="41">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K20" s="41"/>
       <c r="L20" s="41">
-        <v>1404</v>
-      </c>
-      <c r="M20" s="85">
-        <v>0.46</v>
-      </c>
-      <c r="N20" s="85">
-        <v>0.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="68" t="s">
         <v>38</v>
       </c>
@@ -2438,36 +2424,24 @@
         <v>12</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>60</v>
-      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" s="32">
         <v>1</v>
       </c>
-      <c r="I21" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="I21" s="78"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="42"/>
-      <c r="L21" s="42">
-        <v>0</v>
-      </c>
+      <c r="L21" s="42"/>
       <c r="M21" s="86"/>
       <c r="N21" s="86"/>
-      <c r="O21" s="69" t="s">
-        <v>38</v>
-      </c>
+      <c r="O21" s="69"/>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
@@ -2477,22 +2451,22 @@
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="30">
         <v>1</v>
       </c>
       <c r="I22" s="77" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J22" s="30">
         <v>1081890</v>
@@ -2527,7 +2501,7 @@
       <c r="M23" s="47"/>
       <c r="N23" s="47">
         <f>SUM(N10:N22)</f>
-        <v>6.37</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="O23" s="70"/>
     </row>
@@ -2572,7 +2546,7 @@
       <c r="K25" s="39"/>
       <c r="L25" s="88">
         <f>N23</f>
-        <v>6.37</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="M25" s="89"/>
       <c r="N25" s="97" t="s">
@@ -2596,7 +2570,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="90">
         <f>L25/H25</f>
-        <v>6.37</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="M26" s="90"/>
       <c r="N26" s="98" t="s">
@@ -2741,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2773,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2789,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2813,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2821,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2829,7 +2803,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2837,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.25">
@@ -2845,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
